--- a/DataSets/UniqueTypes/uniqueTypes_v2.xlsx
+++ b/DataSets/UniqueTypes/uniqueTypes_v2.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Khabarov\Скрипты\6.Валидация АР\DataSets\UniqueTypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3D9064-D0D1-410E-AF88-D527AD95267E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322843C6-F263-473E-8306-7CC373014B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$299</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="313">
   <si>
     <t>Группа модели</t>
   </si>
@@ -433,12 +436,12 @@
     <t>BRU_Утеплитель_ТехЭтаж_50мм_ЭППС КЖ</t>
   </si>
   <si>
+    <t>BRU_Перегородка_ГКЛ_Gyproc_С-2М-2ОПТИМА_280/2х75_ГСП-А_12,5</t>
+  </si>
+  <si>
     <t>BRU_Перегородка_КирпичКерамическийРядовойПустотелый1,4НФ_120мм</t>
   </si>
   <si>
-    <t>BRU_Перегородка_ГКЛ_Gyproc_С-2М-2ОПТИМА_280/2х75_ГСП-А_12,5</t>
-  </si>
-  <si>
     <t>BRU_Обшивка_ГКЛ_Gyproc_О-МС-1ГСП_27_ГСП-DF_12,5</t>
   </si>
   <si>
@@ -487,15 +490,18 @@
     <t>BRU_Витраж_ВходныеГруппы</t>
   </si>
   <si>
+    <t>BRU_Отделка_МОП_кладка_15мм</t>
+  </si>
+  <si>
     <t>BRU_ФасадШтукатурный_Штукатурка_10мм_ТемныйКоричневыйЦвет</t>
   </si>
   <si>
-    <t>BRU_Отделка_МОП_кладка_15мм</t>
-  </si>
-  <si>
     <t>BRU_ФасадНавесной_Утеплитель_150мм</t>
   </si>
   <si>
+    <t>Утепление стен подвала</t>
+  </si>
+  <si>
     <t>BRU_ОтделкаПомещений_Утеплитель_100мм</t>
   </si>
   <si>
@@ -511,27 +517,27 @@
     <t>BRU_ФасадШтукатурный_ШтукатуркаКоричневая_10мм</t>
   </si>
   <si>
+    <t>BRU_ВнешняяСтена_БлокКерамический10,5НФ_250мм</t>
+  </si>
+  <si>
     <t>BRU_Парапет_Утеплитель_150мм</t>
   </si>
   <si>
-    <t>BRU_ВнешняяСтена_БлокКерамический10,5НФ_250мм</t>
-  </si>
-  <si>
     <t>BRU_ФасадШтукатурный_Утеплитель_150</t>
   </si>
   <si>
+    <t>Зашивка в свободной планировке_75мм</t>
+  </si>
+  <si>
     <t>BRU_ОтделкаПомещений_ПоКладке_15мм_МОП</t>
   </si>
   <si>
-    <t>Зашивка в свободной планировке_75мм</t>
+    <t>BRU_ОтделкаПомещений_ПоКладке_15мм_СухаяЗона_МОП</t>
   </si>
   <si>
     <t>BRU_ФасадНавесной_ПанельФиброцементная_140мм</t>
   </si>
   <si>
-    <t>BRU_ОтделкаПомещений_ПоКладке_15мм_СухаяЗона_МОП</t>
-  </si>
-  <si>
     <t>АИ_Отбивка_Окраска RAL 9005</t>
   </si>
   <si>
@@ -541,12 +547,12 @@
     <t>АИ_Стена_Керамогранит Керама Марацци DD500220R Про Стоун серый 1200x600. Затирка Ceresit CE40 №07 серый</t>
   </si>
   <si>
+    <t>BRU_ФасадЦоколь_Утеплитель_50мм</t>
+  </si>
+  <si>
     <t>BRU_ОтделкаПомещений_ПоУтеплителю_15мм_СухаяЗона</t>
   </si>
   <si>
-    <t>BRU_ФасадЦоколь_Утеплитель_50мм</t>
-  </si>
-  <si>
     <t>BRU_ФасадШтукатурный_ШтукатуркаКоричневаяТемная_10мм</t>
   </si>
   <si>
@@ -574,168 +580,165 @@
     <t>BRU_Фасад_Утеплитель_300_Штукатурка_10_310мм</t>
   </si>
   <si>
+    <t>BRU_ОтделкаПомещений_Утеплитель_150мм</t>
+  </si>
+  <si>
     <t>BRU_ФасадНавесной_Утеплитель_140 мм</t>
   </si>
   <si>
-    <t>BRU_ОтделкаПомещений_Утеплитель_150мм</t>
+    <t>BRU_Фасад_Утеплитель_150_Штукатурка_10_160мм</t>
+  </si>
+  <si>
+    <t>BRU_ФасадНавесной_ПанельФиброцементная_35мм</t>
+  </si>
+  <si>
+    <t>BRU_Перегородка_КирпичКерамическийРядовойПолнотелый1,4НФ_250мм</t>
+  </si>
+  <si>
+    <t>BRU_Парапет_КирпичКерамическийРядовойПолнотелый1,4НФ_250мм</t>
+  </si>
+  <si>
+    <t>АИ_Стена_Наличник RAL 9005</t>
+  </si>
+  <si>
+    <t>Витраж_ВходныеГруппы</t>
+  </si>
+  <si>
+    <t>BRU_Фасад штукатурный_Утеплитель_Тамбур_150 мм</t>
+  </si>
+  <si>
+    <t>BRU_ОтделкаПомещений_Утеплитель_50мм</t>
+  </si>
+  <si>
+    <t>BRU_Утеплитель_ТехноБлок50кг/м3_150мм</t>
+  </si>
+  <si>
+    <t>BRU_ФасадШтукатурный_ШтукатуркаКолерованная_10мм 2</t>
+  </si>
+  <si>
+    <t>BRU_Отделка_МОП_Кладка_мокрая зона_15мм</t>
+  </si>
+  <si>
+    <t>BRU_Зашивка_ГКЛ_КНАУФ_С626_50_ГСП-Н2_12,5</t>
+  </si>
+  <si>
+    <t>BRU_Витраж_Квартирный_усиленный</t>
+  </si>
+  <si>
+    <t>АИ_Стена_Колясочная_Керамогранит Керама Марацци DD500220R Про Стоун серый 1200x600. Затирка Ceresit CE40 №07 серый</t>
+  </si>
+  <si>
+    <t>BRU_Обшивка_ГКЛ_КНАУФ_С611_ГСП-A_12,5</t>
+  </si>
+  <si>
+    <t>BRU_ВнешняяСтена_Тех.Этаж_Утеплитель_150мм</t>
+  </si>
+  <si>
+    <t>ЛДСП 16мм</t>
+  </si>
+  <si>
+    <t>BRU_ОтделкаПомещений_ПоУтеплителю_10мм_СухаяЗона_МОП</t>
+  </si>
+  <si>
+    <t>BRU_ФасадШтукатурный_Штукатурка_Бежевая_10мм</t>
+  </si>
+  <si>
+    <t>BRU_Перегородка_БлокКерамзитовыйПустотелый390х250х188мм_250мм</t>
+  </si>
+  <si>
+    <t>BRU_ЖБ стена_250</t>
+  </si>
+  <si>
+    <t>BRU_ОтделкаПомещений_ПоБетону_10мм_СухаяЗона</t>
+  </si>
+  <si>
+    <t>BRU_Парапет_КирпичКерамическийРядовойПолнотелый1НФ_250мм</t>
+  </si>
+  <si>
+    <t>BRU_ФасадШтукатурный_УтеплительЭППС_Огнезащитный_470мм</t>
+  </si>
+  <si>
+    <t>BRU_ФасадШтукатурный_УтеплительЭППС_Огнезащитный_467,5</t>
+  </si>
+  <si>
+    <t>ADSK_Бетон_В25180</t>
+  </si>
+  <si>
+    <t>BRU_ФасадНавесной_КирпичКлинкерный0,7НФ_85мм_антрацитово-серый</t>
+  </si>
+  <si>
+    <t>BRU_ФасадШтукатурный_Утеплитель_ЭППС_50мм</t>
+  </si>
+  <si>
+    <t>АИ_Стена_Колясочная_Окраска NCS S 2000-N</t>
+  </si>
+  <si>
+    <t>ADSK_Витраж_Без разрезки_Импосты 50х100</t>
+  </si>
+  <si>
+    <t>BRU_Парапет_Утеплитель_150</t>
+  </si>
+  <si>
+    <t>BRU_Парапет_КирпичКерамическийРядовойПолнотелый1,4НФ_120мм</t>
+  </si>
+  <si>
+    <t>BRU_ФасадНавесной_КирпичКерамический0,7НФ_85мм</t>
+  </si>
+  <si>
+    <t>BRU_Зашивка_ЦПВ_КНАУФ_С685_50_Аквапанель_12,5</t>
+  </si>
+  <si>
+    <t>BRU_ФасадЦоколь_Утеплитель_100мм</t>
+  </si>
+  <si>
+    <t>BRU_Перегородка_ГКЛ_КНАУФ_С112_125/75_ГСП-A/ГСП-Н2_12,5 С/У</t>
+  </si>
+  <si>
+    <t>BRU_ВнутренняяСтена_Тамбур_Утеплитель_150мм</t>
+  </si>
+  <si>
+    <t>АВЛН_Нр_ЭППС_50мм</t>
+  </si>
+  <si>
+    <t>АВЛН_Нр_ЭППС_100мм</t>
+  </si>
+  <si>
+    <t>BRU_ФасадШтукатурный_Штукатурка_Бежевая_Светлая_10мм</t>
+  </si>
+  <si>
+    <t>BRU_ВнешняяСтена_ФасадЦоколь_Утеплитель_100мм</t>
+  </si>
+  <si>
+    <t>ADSK_Бетон_В25 300</t>
+  </si>
+  <si>
+    <t>BRU_ВнешняяСтена_Тех.Этаж_Утеплитель_100мм 2</t>
+  </si>
+  <si>
+    <t>BRU_Парапет_БлокКерамический10,5НФ_250мм</t>
+  </si>
+  <si>
+    <t>АИ_Зашивка_ГКЛ_75_ГСП-A(12,5)_x2 2</t>
+  </si>
+  <si>
+    <t>BRU_ФасадШтукатурный_ДекоративныйЭлемент_Утеплитель_30мм</t>
+  </si>
+  <si>
+    <t>BRU_Парапет_Штукатурка_Бежевая_Светлая_10мм</t>
+  </si>
+  <si>
+    <t>BRU_ЛЛУ_250</t>
   </si>
   <si>
     <t>Утепление помещений</t>
   </si>
   <si>
-    <t>BRU_ОтделкаПомещений_Утеплитель_50мм</t>
-  </si>
-  <si>
-    <t>BRU_Фасад_Утеплитель_150_Штукатурка_10_160мм</t>
-  </si>
-  <si>
-    <t>BRU_ФасадНавесной_ПанельФиброцементная_35мм</t>
-  </si>
-  <si>
-    <t>BRU_Перегородка_КирпичКерамическийРядовойПолнотелый1,4НФ_250мм</t>
-  </si>
-  <si>
-    <t>BRU_Парапет_КирпичКерамическийРядовойПолнотелый1,4НФ_250мм</t>
-  </si>
-  <si>
-    <t>АИ_Стена_Наличник RAL 9005</t>
-  </si>
-  <si>
-    <t>Витраж_ВходныеГруппы</t>
-  </si>
-  <si>
-    <t>BRU_Фасад штукатурный_Утеплитель_Тамбур_150 мм</t>
-  </si>
-  <si>
-    <t>BRU_Утеплитель_ТехноБлок50кг/м3_150мм</t>
-  </si>
-  <si>
-    <t>BRU_ФасадШтукатурный_ШтукатуркаКолерованная_10мм 2</t>
-  </si>
-  <si>
-    <t>BRU_Отделка_МОП_Кладка_мокрая зона_15мм</t>
-  </si>
-  <si>
-    <t>BRU_Зашивка_ГКЛ_КНАУФ_С626_50_ГСП-Н2_12,5</t>
-  </si>
-  <si>
-    <t>BRU_Витраж_Квартирный_усиленный</t>
-  </si>
-  <si>
-    <t>ЛДСП 16мм</t>
-  </si>
-  <si>
-    <t>BRU_ВнешняяСтена_Тех.Этаж_Утеплитель_150мм</t>
-  </si>
-  <si>
-    <t>BRU_Обшивка_ГКЛ_КНАУФ_С611_ГСП-A_12,5</t>
-  </si>
-  <si>
-    <t>АИ_Стена_Колясочная_Керамогранит Керама Марацци DD500220R Про Стоун серый 1200x600. Затирка Ceresit CE40 №07 серый</t>
-  </si>
-  <si>
-    <t>BRU_ОтделкаПомещений_ПоУтеплителю_10мм_СухаяЗона_МОП</t>
-  </si>
-  <si>
-    <t>BRU_ФасадШтукатурный_Штукатурка_Бежевая_10мм</t>
-  </si>
-  <si>
-    <t>BRU_ОтделкаПомещений_ПоБетону_10мм_СухаяЗона</t>
-  </si>
-  <si>
-    <t>BRU_Перегородка_БлокКерамзитовыйПустотелый390х250х188мм_250мм</t>
-  </si>
-  <si>
-    <t>BRU_ЖБ стена_250</t>
-  </si>
-  <si>
-    <t>BRU_Парапет_КирпичКерамическийРядовойПолнотелый1НФ_250мм</t>
-  </si>
-  <si>
-    <t>ADSK_Бетон_В25180</t>
-  </si>
-  <si>
-    <t>BRU_ФасадШтукатурный_УтеплительЭППС_Огнезащитный_470мм</t>
-  </si>
-  <si>
-    <t>BRU_ФасадШтукатурный_УтеплительЭППС_Огнезащитный_467,5</t>
-  </si>
-  <si>
-    <t>BRU_ФасадНавесной_КирпичКлинкерный0,7НФ_85мм_антрацитово-серый</t>
-  </si>
-  <si>
-    <t>АИ_Стена_Колясочная_Окраска NCS S 2000-N</t>
-  </si>
-  <si>
-    <t>BRU_ФасадШтукатурный_Утеплитель_ЭППС_50мм</t>
-  </si>
-  <si>
-    <t>ADSK_Витраж_Без разрезки_Импосты 50х100</t>
-  </si>
-  <si>
-    <t>BRU_Парапет_Утеплитель_150</t>
-  </si>
-  <si>
-    <t>BRU_Парапет_КирпичКерамическийРядовойПолнотелый1,4НФ_120мм</t>
-  </si>
-  <si>
-    <t>BRU_ФасадНавесной_КирпичКерамический0,7НФ_85мм</t>
-  </si>
-  <si>
-    <t>BRU_Перегородка_ГКЛ_КНАУФ_С112_125/75_ГСП-A/ГСП-Н2_12,5 С/У</t>
-  </si>
-  <si>
-    <t>BRU_ВнутренняяСтена_Тамбур_Утеплитель_150мм</t>
-  </si>
-  <si>
-    <t>BRU_Зашивка_ЦПВ_КНАУФ_С685_50_Аквапанель_12,5</t>
-  </si>
-  <si>
-    <t>BRU_ФасадЦоколь_Утеплитель_100мм</t>
-  </si>
-  <si>
-    <t>Утепление стен подвала</t>
-  </si>
-  <si>
-    <t>АВЛН_Нр_ЭППС_50мм</t>
-  </si>
-  <si>
-    <t>АВЛН_Нр_ЭППС_100мм</t>
-  </si>
-  <si>
-    <t>BRU_ФасадШтукатурный_Штукатурка_Бежевая_Светлая_10мм</t>
-  </si>
-  <si>
-    <t>BRU_ВнешняяСтена_ФасадЦоколь_Утеплитель_100мм</t>
-  </si>
-  <si>
-    <t>ADSK_Бетон_В25 300</t>
-  </si>
-  <si>
-    <t>BRU_ВнешняяСтена_Тех.Этаж_Утеплитель_100мм 2</t>
-  </si>
-  <si>
-    <t>BRU_Парапет_БлокКерамический10,5НФ_250мм</t>
-  </si>
-  <si>
-    <t>АИ_Зашивка_ГКЛ_75_ГСП-A(12,5)_x2 2</t>
-  </si>
-  <si>
-    <t>BRU_ФасадШтукатурный_ДекоративныйЭлемент_Утеплитель_30мм</t>
-  </si>
-  <si>
-    <t>BRU_Парапет_Штукатурка_Бежевая_Светлая_10мм</t>
-  </si>
-  <si>
-    <t>BRU_ЛЛУ_250</t>
+    <t>BRU_ЛЛУ_180</t>
   </si>
   <si>
     <t>BRU_Перегородка_ГКЛ_125_ГСП-H(12,5)_x4 2</t>
   </si>
   <si>
-    <t>BRU_ЛЛУ_180</t>
-  </si>
-  <si>
     <t>BRU_Парапет_БлокКерамический6,74НФ_120мм</t>
   </si>
   <si>
@@ -751,46 +754,43 @@
     <t>BRU_Вентканал_Утепление_100мм</t>
   </si>
   <si>
-    <t>Деформационный шов. Каркас монолитный</t>
-  </si>
-  <si>
-    <t>BRU_ВнешняяСтена_Тех.Этаж_Утеплитель_50мм</t>
+    <t>BRU_Перегородка_ГКЛ_КНАУФ_С116_280/2x75_ГСП-Н2_12,5</t>
   </si>
   <si>
     <t>АВЛН_Нр_ЭППС_150мм</t>
   </si>
   <si>
-    <t>BRU_Перегородка_ГКЛ_КНАУФ_С116_280/2x75_ГСП-Н2_12,5</t>
-  </si>
-  <si>
     <t>АИ_Велосипедная_Стена_Керамогранит Керама Марацци DD500220R Про Стоун серый 1200x600. Затирка Ceresit CE40 №07 серый</t>
   </si>
   <si>
+    <t>BRU_ФасадНавесной_ШтукатуркаБелая_10мм</t>
+  </si>
+  <si>
     <t>BRU_ЛЛУ_300</t>
   </si>
   <si>
+    <t>BRU_Вентканал_Штукатурка_10мм</t>
+  </si>
+  <si>
     <t>BRU_ФасадШтукатурный_УтеплительЭППС_Огнезащитный_282,5 мм</t>
   </si>
   <si>
-    <t>BRU_ФасадНавесной_ШтукатуркаБелая_10мм</t>
-  </si>
-  <si>
-    <t>BRU_Вентканал_Штукатурка_10мм</t>
+    <t>BRU_ВнешняяСтена_Тех.Этаж_Утеплитель_50мм(эппс)</t>
   </si>
   <si>
     <t>BRU_ВнешняяСтена_Тех.Этаж_Утеплитель_100 мм(эппс)</t>
   </si>
   <si>
-    <t>BRU_ВнешняяСтена_Тех.Этаж_Утеплитель_50мм(эппс)</t>
+    <t>BRU_Обшивка_Утеплитель100мм+Штукатурка10мм_110мм</t>
+  </si>
+  <si>
+    <t>BRU_Перегородка_ГКЛ_КНАУФ_С116_280/2x75_ГСП-А_12,5_СП</t>
   </si>
   <si>
     <t>BRU_Витраж_Квартиры_В-11Л</t>
   </si>
   <si>
-    <t>BRU_Обшивка_Утеплитель100мм+Штукатурка10мм_110мм</t>
-  </si>
-  <si>
-    <t>BRU_Перегородка_ГКЛ_КНАУФ_С116_280/2x75_ГСП-А_12,5_СП</t>
+    <t>BRU_ФасадНавесной_Утеплитель_200мм</t>
   </si>
   <si>
     <t>BRU_ОтделкаФасада_Штукатурка_10мм</t>
@@ -799,100 +799,100 @@
     <t>BRU_Обшивка_ГКЛ_Gyproc_О-МС-2ГСП_75_ГСП-Н3_12,5</t>
   </si>
   <si>
-    <t>BRU_ФасадНавесной_Утеплитель_200мм</t>
+    <t>BRU_ОтделкаПомещений_ПоБетону_15мм</t>
   </si>
   <si>
     <t>BRU_ОтделкаПомещений_ПоКладке_15мм_МокраяЗона_МОП</t>
   </si>
   <si>
-    <t>BRU_ОтделкаПомещений_ПоБетону_15мм</t>
-  </si>
-  <si>
     <t>BRU_Перегородка_ЦПВ_КНАУФ_С381_100/75_Аквапанель_12,5</t>
   </si>
   <si>
+    <t>BRU_Витраж_Окно</t>
+  </si>
+  <si>
     <t>BRU_ВнешняяСтена_КирпичКерамическийРядовойПолнотелый1,4НФ_120мм</t>
   </si>
   <si>
     <t>BRU_Парапет_Кирпич_250_рядовой_полнотелый</t>
   </si>
   <si>
-    <t>BRU_Витраж_Окно</t>
-  </si>
-  <si>
     <t>АИ_Стена_Велосипедная_Окраска NCS S 2000N</t>
   </si>
   <si>
+    <t>BRU_ФасадНавесной_ПанельФиброцементная_40 мм</t>
+  </si>
+  <si>
+    <t>BRU_ФасадШтукатурный_УтеплительЭППС_Огнезащитный_280мм</t>
+  </si>
+  <si>
+    <t>BRU_Обшивка_ГКЛ_КНАУФ_С626_75_ГСП-A_12,5</t>
+  </si>
+  <si>
     <t>BRU_Обшивка_ГКЛ_Gyproc_О-МС-2ОПТИМА_27_ГСП-А_12,5</t>
   </si>
   <si>
-    <t>BRU_ФасадНавесной_ПанельФиброцементная_40 мм</t>
-  </si>
-  <si>
     <t>BRU_Парапет_БлокКерамический_250мм</t>
   </si>
   <si>
-    <t>BRU_ФасадШтукатурный_УтеплительЭППС_Огнезащитный_280мм</t>
-  </si>
-  <si>
-    <t>BRU_Обшивка_ГКЛ_КНАУФ_С626_75_ГСП-A_12,5</t>
+    <t>BRU_ОтделкаПомещений_ПоБетону_15мм_СухаяЗона_гипсовая</t>
+  </si>
+  <si>
+    <t>BRU_ФасадНавесной_Утеплитель_100 мм</t>
+  </si>
+  <si>
+    <t>BRU_ФасадШтукатурный_Утеплитель_100</t>
   </si>
   <si>
     <t>BRU_Перегородка_ГКЛ_Gyproc_С-2М-2ОПТИМА_280/2х75_ГСП-А/ГСП-Н3_12,5</t>
   </si>
   <si>
-    <t>BRU_ФасадНавесной_Утеплитель_100 мм</t>
-  </si>
-  <si>
-    <t>BRU_ОтделкаПомещений_ПоБетону_15мм_СухаяЗона_гипсовая</t>
-  </si>
-  <si>
-    <t>BRU_ФасадШтукатурный_Утеплитель_100</t>
-  </si>
-  <si>
-    <t>Монолитная фундаментная плита</t>
-  </si>
-  <si>
-    <t>ADSK_Бетон_В25 300_Монолитная стена приямка</t>
+    <t>BRU_Обшивка_ГКЛ_Gyproc_О-МС-2ГСП_27_ГСП-А_12,5</t>
   </si>
   <si>
     <t>BRU_Парапет_КирпичКерамическийРядовойПустотелый1,4НФ_250мм</t>
   </si>
   <si>
-    <t>BRU_ДеформационныйШов_Межсекционный_Утеплитель_ППС_Стены_50мм</t>
-  </si>
-  <si>
-    <t>BRU_Обшивка_ГКЛ_Gyproc_О-МС-2ГСП_27_ГСП-А_12,5</t>
-  </si>
-  <si>
     <t>BRU_ЖБ стена_200</t>
   </si>
   <si>
+    <t>BRU_ФасадШтукатурный_Штукатурка_Красная_10мм</t>
+  </si>
+  <si>
+    <t>BRU_ВнутреняяСтена_Тех.Этаж_Утеплитель_100мм</t>
+  </si>
+  <si>
+    <t>BRU_Утеплитель_ТехноРУФ_100мм</t>
+  </si>
+  <si>
     <t>BRU_Перегородка_ГКЛ_Gyproc_С-1М-2ОПТИМА_100/50_ГСП-A_12,5</t>
   </si>
   <si>
-    <t>BRU_Утеплитель_ТехноРУФ_100мм</t>
-  </si>
-  <si>
-    <t>BRU_ДеформационныйШов_Межсекционный_Утеплитель_Стены_50мм</t>
-  </si>
-  <si>
-    <t>BRU_ВнутреняяСтена_Тех.Этаж_Утеплитель_100мм</t>
-  </si>
-  <si>
-    <t>BRU_ФасадШтукатурный_Штукатурка_Красная_10мм</t>
-  </si>
-  <si>
     <t>АР_Ут_50_Техноакустик</t>
   </si>
   <si>
     <t>BRU_Витраж_Ритейл_2270_В-13</t>
   </si>
   <si>
+    <t>BRU_Зашивка_ГКЛ_Gyproc_О-МС-2ГСП_50_ГСП-А_12,5</t>
+  </si>
+  <si>
+    <t>BRU_Витраж_Ритейл_В-3</t>
+  </si>
+  <si>
     <t>BRU_Витраж_Вход_В-13.1</t>
   </si>
   <si>
-    <t>BRU_Витраж_Ритейл_В-3</t>
+    <t>BRU_Парапет_Утеплитель_120</t>
+  </si>
+  <si>
+    <t>BRU_Зашивка_ГКЛ_КНАУФ_37,5_ГСП-А_12,5</t>
+  </si>
+  <si>
+    <t>BRU_Витраж_Вход_В-13</t>
+  </si>
+  <si>
+    <t>BRU_Парапет_Утеплитель_100</t>
   </si>
   <si>
     <t>BRU_ФасадНавесной_Утеплитель_140мм</t>
@@ -901,85 +901,67 @@
     <t>BRU_Утеплитель_ТехноБлок80кг/м3_100мм</t>
   </si>
   <si>
-    <t>BRU_Парапет_Утеплитель_120</t>
-  </si>
-  <si>
-    <t>BRU_Парапет_Утеплитель_100</t>
-  </si>
-  <si>
-    <t>BRU_Зашивка_ГКЛ_Gyproc_О-МС-2ГСП_50_ГСП-А_12,5</t>
-  </si>
-  <si>
-    <t>BRU_Витраж_Вход_В-13</t>
-  </si>
-  <si>
-    <t>BRU_Зашивка_ГКЛ_КНАУФ_37,5_ГСП-А_12,5</t>
+    <t>BRU_Витраж_ЛК_В-1Л</t>
+  </si>
+  <si>
+    <t>BRU_Витраж_Вход_В-23</t>
+  </si>
+  <si>
+    <t>BRU_Витраж_Вход_В-24</t>
+  </si>
+  <si>
+    <t>BRU_Витраж_ВходныеГруппы_В-16</t>
+  </si>
+  <si>
+    <t>BRU_Витраж_ВходныеГруппы_В-17</t>
+  </si>
+  <si>
+    <t>BRU_Витраж_Квартиры_В-7.1П</t>
+  </si>
+  <si>
+    <t>BRU_Витраж_Квартиры_индвид. вход_В-6Л</t>
+  </si>
+  <si>
+    <t>BRU_Витраж_Квартиры_индвид. вход_В-7Л</t>
+  </si>
+  <si>
+    <t>BRU_Витраж_ЛК_В-1.1Л</t>
+  </si>
+  <si>
+    <t>BRU_Перегородка_КирпичКерамическийРядовойПустотелый1НФ_65мм</t>
+  </si>
+  <si>
+    <t>BRU_Фасад_Утеплитель_300мм</t>
+  </si>
+  <si>
+    <t>BRU_Перегородка_ГКЛ_Gyproc_С-2М-2ОПТИМА_280/2х75_ГСП-Н3_12,5</t>
+  </si>
+  <si>
+    <t>BRU_Витраж_Ритейл_В-3.1</t>
+  </si>
+  <si>
+    <t>BRU_Перегородка_ГКЛ_Gyproc_С-1М-2ОПТИМА_125/75_ГСП-Н3_12,5</t>
+  </si>
+  <si>
+    <t>BRU_Витраж_Ритейл_В-9</t>
   </si>
   <si>
     <t>BRU_Витраж_Ритейл_В-9.1</t>
   </si>
   <si>
-    <t>BRU_Витраж_ЛК_В-1.1Л</t>
+    <t>BRU_ФасадШтукатурный_Утеплитель_200</t>
   </si>
   <si>
     <t>BRU_ФасадНавесной_ПанельФиброцементная_70 мм</t>
   </si>
   <si>
-    <t>BRU_Витраж_Вход_В-23</t>
-  </si>
-  <si>
-    <t>BRU_Витраж_Вход_В-24</t>
+    <t>ADSK_Бетон_В25 70</t>
+  </si>
+  <si>
+    <t>BRU_ОтделкаПомещений_ПоБетону_15мм_МокраяЗона_МОП</t>
   </si>
   <si>
     <t>BRU_ФасадШтукатурный_Утеплитель_90</t>
-  </si>
-  <si>
-    <t>BRU_Витраж_ВходныеГруппы_В-16</t>
-  </si>
-  <si>
-    <t>BRU_Витраж_ВходныеГруппы_В-17</t>
-  </si>
-  <si>
-    <t>BRU_Витраж_Ритейл_В-3.1</t>
-  </si>
-  <si>
-    <t>ADSK_Бетон_В25 70</t>
-  </si>
-  <si>
-    <t>BRU_Витраж_Квартиры_В-7.1П</t>
-  </si>
-  <si>
-    <t>BRU_Витраж_Квартиры_индвид. вход_В-6Л</t>
-  </si>
-  <si>
-    <t>BRU_Витраж_Квартиры_индвид. вход_В-7Л</t>
-  </si>
-  <si>
-    <t>BRU_Витраж_Ритейл_В-9</t>
-  </si>
-  <si>
-    <t>BRU_Витраж_ЛК_В-1Л</t>
-  </si>
-  <si>
-    <t>BRU_ОтделкаПомещений_ПоБетону_15мм_МокраяЗона_МОП</t>
-  </si>
-  <si>
-    <t>BRU_Перегородка_ГКЛ_Gyproc_С-2М-2ОПТИМА_280/2х75_ГСП-Н3_12,5</t>
-  </si>
-  <si>
-    <t>BRU_Перегородка_КирпичКерамическийРядовойПустотелый1НФ_65мм</t>
-  </si>
-  <si>
-    <t>BRU_ДеформационныйШов_СекцияПаркинг_Утеплитель_Стены_50мм</t>
-  </si>
-  <si>
-    <t>BRU_Перегородка_ГКЛ_Gyproc_С-1М-2ОПТИМА_125/75_ГСП-Н3_12,5</t>
-  </si>
-  <si>
-    <t>BRU_Фасад_Утеплитель_300мм</t>
-  </si>
-  <si>
-    <t>BRU_ФасадШтукатурный_Утеплитель_200</t>
   </si>
 </sst>
 </file>
@@ -1342,16 +1324,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E303"/>
+  <dimension ref="A1:E299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="C300" sqref="C300"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="116.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3396,13 +3378,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C121" t="s">
         <v>137</v>
       </c>
       <c r="D121">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="E121">
         <v>145</v>
@@ -3413,13 +3395,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C122" t="s">
         <v>138</v>
       </c>
       <c r="D122">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="E122">
         <v>145</v>
@@ -3702,13 +3684,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>155</v>
       </c>
       <c r="D139">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E139">
         <v>108</v>
@@ -3719,13 +3701,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
         <v>156</v>
       </c>
       <c r="D140">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E140">
         <v>108</v>
@@ -3753,10 +3735,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="C142" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D142">
         <v>100</v>
@@ -3773,7 +3755,7 @@
         <v>123</v>
       </c>
       <c r="C143" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D143">
         <v>75</v>
@@ -3790,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D144">
         <v>100</v>
@@ -3807,7 +3789,7 @@
         <v>51</v>
       </c>
       <c r="C145" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D145">
         <v>17</v>
@@ -3824,7 +3806,7 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D146">
         <v>10</v>
@@ -3838,13 +3820,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C147" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D147">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E147">
         <v>99</v>
@@ -3855,13 +3837,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D148">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E148">
         <v>99</v>
@@ -3875,7 +3857,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D149">
         <v>150</v>
@@ -3889,13 +3871,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C150" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D150">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E150">
         <v>92</v>
@@ -3906,13 +3888,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D151">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E151">
         <v>92</v>
@@ -3923,13 +3905,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D152">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="E152">
         <v>91</v>
@@ -3940,13 +3922,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="C153" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D153">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="E153">
         <v>91</v>
@@ -3960,7 +3942,7 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D154">
         <v>15</v>
@@ -3977,7 +3959,7 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D155">
         <v>16.399999999999999</v>
@@ -3994,7 +3976,7 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D156">
         <v>15</v>
@@ -4008,13 +3990,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C157" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D157">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E157">
         <v>78</v>
@@ -4025,13 +4007,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D158">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E158">
         <v>78</v>
@@ -4045,7 +4027,7 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D159">
         <v>10</v>
@@ -4079,7 +4061,7 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D161">
         <v>20</v>
@@ -4096,7 +4078,7 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D162">
         <v>150</v>
@@ -4113,7 +4095,7 @@
         <v>17</v>
       </c>
       <c r="C163" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D163">
         <v>250</v>
@@ -4130,7 +4112,7 @@
         <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D164">
         <v>10</v>
@@ -4147,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D165">
         <v>100</v>
@@ -4164,7 +4146,7 @@
         <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D166">
         <v>10</v>
@@ -4181,7 +4163,7 @@
         <v>30</v>
       </c>
       <c r="C167" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D167">
         <v>250</v>
@@ -4198,7 +4180,7 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D168">
         <v>310</v>
@@ -4212,13 +4194,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="C169" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D169">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E169">
         <v>59</v>
@@ -4229,13 +4211,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C170" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D170">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E170">
         <v>59</v>
@@ -4246,16 +4228,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="C171" t="s">
         <v>187</v>
       </c>
       <c r="D171">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="E171">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -4263,16 +4245,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C172" t="s">
         <v>188</v>
       </c>
       <c r="D172">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="E172">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -4280,13 +4262,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="C173" t="s">
         <v>189</v>
       </c>
       <c r="D173">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="E173">
         <v>53</v>
@@ -4297,7 +4279,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C174" t="s">
         <v>190</v>
@@ -4306,7 +4288,7 @@
         <v>250</v>
       </c>
       <c r="E174">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -4314,16 +4296,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>191</v>
       </c>
       <c r="D175">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="E175">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -4331,16 +4313,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="C176" t="s">
         <v>192</v>
       </c>
       <c r="D176">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E176">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -4348,16 +4330,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="C177" t="s">
         <v>193</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E177">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -4365,16 +4347,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="C178" t="s">
         <v>194</v>
       </c>
       <c r="D178">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E178">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -4467,13 +4449,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>200</v>
       </c>
       <c r="D184">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E184">
         <v>34</v>
@@ -4484,13 +4466,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C185" t="s">
         <v>201</v>
       </c>
       <c r="D185">
-        <v>150</v>
+        <v>12.5</v>
       </c>
       <c r="E185">
         <v>34</v>
@@ -4501,13 +4483,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C186" t="s">
         <v>202</v>
       </c>
       <c r="D186">
-        <v>12.5</v>
+        <v>150</v>
       </c>
       <c r="E186">
         <v>34</v>
@@ -4518,13 +4500,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C187" t="s">
         <v>203</v>
       </c>
       <c r="D187">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E187">
         <v>34</v>
@@ -4569,13 +4551,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C190" t="s">
         <v>206</v>
       </c>
       <c r="D190">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="E190">
         <v>32</v>
@@ -4586,7 +4568,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C191" t="s">
         <v>207</v>
@@ -4603,13 +4585,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>208</v>
       </c>
       <c r="D192">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="E192">
         <v>32</v>
@@ -4637,13 +4619,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C194" t="s">
         <v>210</v>
       </c>
       <c r="D194">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="E194">
         <v>30</v>
@@ -4654,13 +4636,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="D195">
-        <v>10</v>
+        <v>467.5</v>
       </c>
       <c r="E195">
         <v>30</v>
@@ -4671,13 +4653,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C196" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D196">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="E196">
         <v>30</v>
@@ -4688,13 +4670,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="D197">
-        <v>467.5</v>
+        <v>10</v>
       </c>
       <c r="E197">
         <v>30</v>
@@ -4722,13 +4704,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C199" t="s">
         <v>214</v>
       </c>
       <c r="D199">
-        <v>16.399999999999999</v>
+        <v>50</v>
       </c>
       <c r="E199">
         <v>28</v>
@@ -4739,13 +4721,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>215</v>
       </c>
       <c r="D200">
-        <v>50</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E200">
         <v>28</v>
@@ -4824,13 +4806,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="C205" t="s">
         <v>220</v>
       </c>
       <c r="D205">
-        <v>125</v>
+        <v>87.5</v>
       </c>
       <c r="E205">
         <v>24</v>
@@ -4841,13 +4823,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C206" t="s">
         <v>221</v>
       </c>
       <c r="D206">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E206">
         <v>24</v>
@@ -4858,13 +4840,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="C207" t="s">
         <v>222</v>
       </c>
       <c r="D207">
-        <v>87.5</v>
+        <v>125</v>
       </c>
       <c r="E207">
         <v>24</v>
@@ -4875,13 +4857,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C208" t="s">
         <v>223</v>
       </c>
       <c r="D208">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E208">
         <v>24</v>
@@ -4892,10 +4874,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
+        <v>158</v>
+      </c>
+      <c r="C209" t="s">
         <v>224</v>
-      </c>
-      <c r="C209" t="s">
-        <v>225</v>
       </c>
       <c r="D209">
         <v>50</v>
@@ -4909,10 +4891,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="C210" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D210">
         <v>100</v>
@@ -4929,7 +4911,7 @@
         <v>6</v>
       </c>
       <c r="C211" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D211">
         <v>10</v>
@@ -4946,7 +4928,7 @@
         <v>92</v>
       </c>
       <c r="C212" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D212">
         <v>100</v>
@@ -4963,7 +4945,7 @@
         <v>30</v>
       </c>
       <c r="C213" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D213">
         <v>300</v>
@@ -4977,10 +4959,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="C214" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D214">
         <v>100</v>
@@ -4997,7 +4979,7 @@
         <v>17</v>
       </c>
       <c r="C215" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D215">
         <v>250</v>
@@ -5014,7 +4996,7 @@
         <v>123</v>
       </c>
       <c r="C216" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D216">
         <v>75</v>
@@ -5031,7 +5013,7 @@
         <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D217">
         <v>30</v>
@@ -5048,7 +5030,7 @@
         <v>6</v>
       </c>
       <c r="C218" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D218">
         <v>10</v>
@@ -5065,7 +5047,7 @@
         <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D219">
         <v>250</v>
@@ -5079,16 +5061,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="C220" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D220">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="E220">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -5099,7 +5081,7 @@
         <v>30</v>
       </c>
       <c r="C221" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D221">
         <v>180</v>
@@ -5113,16 +5095,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C222" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D222">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E222">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -5130,13 +5112,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C223" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D223">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="E223">
         <v>15</v>
@@ -5147,13 +5129,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D224">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="E224">
         <v>15</v>
@@ -5164,16 +5146,16 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D225">
+        <v>10</v>
+      </c>
+      <c r="E225">
         <v>15</v>
-      </c>
-      <c r="E225">
-        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -5181,10 +5163,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="C226" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D226">
         <v>100</v>
@@ -5198,13 +5180,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D227">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E227">
         <v>14</v>
@@ -5215,16 +5197,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>243</v>
+        <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D228">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E228">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -5232,13 +5214,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="C229" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D229">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="E229">
         <v>13</v>
@@ -5249,13 +5231,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="C230" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D230">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="E230">
         <v>13</v>
@@ -5269,7 +5251,7 @@
         <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D231">
         <v>15</v>
@@ -5283,13 +5265,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D232">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E232">
         <v>12</v>
@@ -5300,13 +5282,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C233" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D233">
-        <v>282.5</v>
+        <v>300</v>
       </c>
       <c r="E233">
         <v>12</v>
@@ -5320,7 +5302,7 @@
         <v>6</v>
       </c>
       <c r="C234" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D234">
         <v>10</v>
@@ -5334,13 +5316,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C235" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D235">
-        <v>10</v>
+        <v>282.5</v>
       </c>
       <c r="E235">
         <v>12</v>
@@ -5351,13 +5333,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="C236" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D236">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E236">
         <v>11</v>
@@ -5368,13 +5350,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="C237" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D237">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E237">
         <v>11</v>
@@ -5385,13 +5367,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="C238" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E238">
         <v>10</v>
@@ -5402,13 +5384,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C239" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D239">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="E239">
         <v>10</v>
@@ -5419,13 +5401,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="C240" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D240">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="E240">
         <v>10</v>
@@ -5436,13 +5418,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C241" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D241">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E241">
         <v>9</v>
@@ -5453,13 +5435,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D242">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E242">
         <v>9</v>
@@ -5470,13 +5452,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C243" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D243">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E243">
         <v>9</v>
@@ -5490,7 +5472,7 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D244">
         <v>15</v>
@@ -5507,7 +5489,7 @@
         <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D245">
         <v>15</v>
@@ -5524,7 +5506,7 @@
         <v>26</v>
       </c>
       <c r="C246" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D246">
         <v>100</v>
@@ -5538,13 +5520,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="C247" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D247">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E247">
         <v>7</v>
@@ -5555,13 +5537,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C248" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D248">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="E248">
         <v>7</v>
@@ -5572,13 +5554,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="C249" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E249">
         <v>7</v>
@@ -5592,7 +5574,7 @@
         <v>8</v>
       </c>
       <c r="C250" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D250">
         <v>15</v>
@@ -5606,13 +5588,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C251" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D251">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E251">
         <v>6</v>
@@ -5623,13 +5605,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C252" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D252">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="E252">
         <v>6</v>
@@ -5640,13 +5622,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C253" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D253">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E253">
         <v>6</v>
@@ -5657,13 +5639,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C254" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D254">
-        <v>280</v>
+        <v>52</v>
       </c>
       <c r="E254">
         <v>6</v>
@@ -5674,13 +5656,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C255" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D255">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E255">
         <v>6</v>
@@ -5691,13 +5673,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D256">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="E256">
         <v>5</v>
@@ -5711,7 +5693,7 @@
         <v>87</v>
       </c>
       <c r="C257" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D257">
         <v>100</v>
@@ -5725,13 +5707,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C258" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D258">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E258">
         <v>5</v>
@@ -5742,13 +5724,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C259" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D259">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="E259">
         <v>5</v>
@@ -5759,13 +5741,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>276</v>
+        <v>24</v>
       </c>
       <c r="C260" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D260">
-        <v>300</v>
+        <v>52</v>
       </c>
       <c r="E260">
         <v>4</v>
@@ -5779,7 +5761,7 @@
         <v>17</v>
       </c>
       <c r="C261" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D261">
         <v>250</v>
@@ -5793,16 +5775,16 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="C262" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D262">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E262">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -5810,16 +5792,16 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C263" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D263">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E263">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -5827,13 +5809,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="C264" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D264">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E264">
         <v>3</v>
@@ -5844,10 +5826,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D265">
         <v>100</v>
@@ -5861,10 +5843,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C266" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D266">
         <v>100</v>
@@ -5878,10 +5860,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="C267" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D267">
         <v>50</v>
@@ -5895,16 +5877,16 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="C268" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D268">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E268">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -5912,16 +5894,16 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="C269" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D269">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E269">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -5929,16 +5911,16 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="C270" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D270">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E270">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -5949,7 +5931,7 @@
         <v>130</v>
       </c>
       <c r="C271" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -5963,13 +5945,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="C272" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E272">
         <v>2</v>
@@ -5980,13 +5962,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="C273" t="s">
-        <v>96</v>
+        <v>287</v>
       </c>
       <c r="D273">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E273">
         <v>2</v>
@@ -6000,7 +5982,7 @@
         <v>130</v>
       </c>
       <c r="C274" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -6014,13 +5996,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C275" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D275">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E275">
         <v>2</v>
@@ -6031,13 +6013,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C276" t="s">
-        <v>292</v>
+        <v>96</v>
       </c>
       <c r="D276">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E276">
         <v>2</v>
@@ -6048,13 +6030,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C277" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D277">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E277">
         <v>2</v>
@@ -6068,7 +6050,7 @@
         <v>4</v>
       </c>
       <c r="C278" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D278">
         <v>100</v>
@@ -6082,16 +6064,16 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C279" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D279">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -6102,13 +6084,13 @@
         <v>130</v>
       </c>
       <c r="C280" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D280">
         <v>0</v>
       </c>
       <c r="E280">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -6116,16 +6098,16 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C281" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D281">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E281">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -6136,7 +6118,7 @@
         <v>130</v>
       </c>
       <c r="C282" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -6153,7 +6135,7 @@
         <v>130</v>
       </c>
       <c r="C283" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -6167,13 +6149,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="C284" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D284">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -6187,7 +6169,7 @@
         <v>130</v>
       </c>
       <c r="C285" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -6204,7 +6186,7 @@
         <v>130</v>
       </c>
       <c r="C286" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -6218,13 +6200,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="C287" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D287">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -6235,13 +6217,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="C288" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D288">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -6252,13 +6234,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C289" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -6269,13 +6251,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="C290" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D290">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -6286,13 +6268,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C291" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D291">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -6303,13 +6285,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="C292" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D292">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -6323,7 +6305,7 @@
         <v>130</v>
       </c>
       <c r="C293" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -6340,7 +6322,7 @@
         <v>130</v>
       </c>
       <c r="C294" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -6354,13 +6336,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="C295" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D295">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -6371,13 +6353,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C296" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -6388,13 +6370,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C297" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D297">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -6405,13 +6387,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C298" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D298">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -6422,87 +6404,20 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C299" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D299">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300" s="1">
-        <v>298</v>
-      </c>
-      <c r="B300" t="s">
-        <v>243</v>
-      </c>
-      <c r="C300" t="s">
-        <v>316</v>
-      </c>
-      <c r="D300">
-        <v>50</v>
-      </c>
-      <c r="E300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="1">
-        <v>299</v>
-      </c>
-      <c r="B301" t="s">
-        <v>26</v>
-      </c>
-      <c r="C301" t="s">
-        <v>317</v>
-      </c>
-      <c r="D301">
-        <v>125</v>
-      </c>
-      <c r="E301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="1">
-        <v>300</v>
-      </c>
-      <c r="B302" t="s">
-        <v>17</v>
-      </c>
-      <c r="C302" t="s">
-        <v>318</v>
-      </c>
-      <c r="D302">
-        <v>300</v>
-      </c>
-      <c r="E302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" s="1">
-        <v>301</v>
-      </c>
-      <c r="B303" t="s">
-        <v>4</v>
-      </c>
-      <c r="C303" t="s">
-        <v>319</v>
-      </c>
-      <c r="D303">
-        <v>200</v>
-      </c>
-      <c r="E303">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:E299" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>